--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAnimator.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAnimator.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\Datas\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCE044B-CB72-4A2A-87A9-EF23D7B442A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172CF186-DCDF-4993-86FB-999CF1E5FC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4428" yWindow="1884" windowWidth="17280" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -152,11 +141,30 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Run</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>播放动作2</t>
+  </si>
+  <si>
+    <t>AnimatorMotionName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle</t>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle和Move动作指定为None,客户端会根据是否到位转换</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Die</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放死亡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -564,22 +572,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="7" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="7" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -616,7 +625,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -645,7 +654,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -661,7 +670,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -682,7 +691,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -713,7 +722,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -750,42 +759,80 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D6" t="str">
         <f>B6&amp;"_"&amp;C6</f>
-        <v>PlayAnimator_1</v>
+        <v>PlayAnimator_None</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="8" t="s">
-        <v>17</v>
+      <c r="G6" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="str">
         <f>B7&amp;"_"&amp;C7</f>
-        <v>PlayAnimator_2</v>
+        <v>PlayAnimator_1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="str">
+        <f>B8&amp;"_"&amp;C8</f>
+        <v>PlayAnimator_2</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>17</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="str">
+        <f>B9&amp;"_"&amp;C9</f>
+        <v>PlayAnimator_Die</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAnimator.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAnimator.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172CF186-DCDF-4993-86FB-999CF1E5FC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8657DF-2BBB-4111-82E2-89314E0D1877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -166,12 +177,68 @@
     <t>播放死亡</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>是否进自己可见</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>isOnlySelfShow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术精灵攻击1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术精灵攻击2</t>
+  </si>
+  <si>
+    <t>奥术精灵攻击3</t>
+  </si>
+  <si>
+    <t>哥布林攻击1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林攻击2</t>
+  </si>
+  <si>
+    <t>哥布林攻击3</t>
+  </si>
+  <si>
+    <t>TowerAoShu1_Attack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerAoShu2_Attack</t>
+  </si>
+  <si>
+    <t>TowerAoShu3_Attack</t>
+  </si>
+  <si>
+    <t>TowerGoblin1_Attack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerGoblin2_Attack</t>
+  </si>
+  <si>
+    <t>TowerGoblin3_Attack</t>
+  </si>
+  <si>
+    <t>Attack1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +280,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -283,7 +358,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -293,6 +368,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -572,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -585,10 +664,10 @@
     <col min="3" max="3" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="7" width="13.75" customWidth="1"/>
+    <col min="6" max="8" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -604,9 +683,11 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1"/>
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
@@ -624,8 +705,9 @@
       <c r="W1"/>
       <c r="X1"/>
       <c r="Y1"/>
-    </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z1"/>
+    </row>
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -635,7 +717,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2"/>
+      <c r="H2" s="3"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -653,8 +735,9 @@
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
-    </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z2"/>
+    </row>
+    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -670,9 +753,11 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -690,8 +775,9 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
-    </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z3"/>
+    </row>
+    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -703,7 +789,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4"/>
+      <c r="H4" s="4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
@@ -721,8 +807,9 @@
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
-    </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z4"/>
+    </row>
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -738,9 +825,11 @@
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
@@ -758,8 +847,9 @@
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z5"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
@@ -774,11 +864,14 @@
         <v>21</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -793,11 +886,14 @@
         <v>14</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -812,11 +908,14 @@
         <v>17</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
@@ -831,8 +930,137 @@
         <v>23</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" ref="D10:D15" si="0">B10&amp;"_"&amp;C10</f>
+        <v>PlayAnimator_TowerAoShu1_Attack</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>PlayAnimator_TowerAoShu2_Attack</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>PlayAnimator_TowerAoShu3_Attack</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>PlayAnimator_TowerGoblin1_Attack</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>PlayAnimator_TowerGoblin2_Attack</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>PlayAnimator_TowerGoblin3_Attack</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAnimator.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAnimator.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8657DF-2BBB-4111-82E2-89314E0D1877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A872E82-3659-426B-ADEE-50B5561FB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
   <si>
     <t>##var</t>
   </si>
@@ -232,6 +221,65 @@
   <si>
     <t>Attack1</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerBomb1_Attack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerBomb2_Attack</t>
+  </si>
+  <si>
+    <t>TowerBomb3_Attack</t>
+  </si>
+  <si>
+    <t>炸弹攻击1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹攻击2</t>
+  </si>
+  <si>
+    <t>炸弹攻击3</t>
+  </si>
+  <si>
+    <t>炸弹爆炸1</t>
+  </si>
+  <si>
+    <t>炸弹爆炸2</t>
+  </si>
+  <si>
+    <t>炸弹爆炸3</t>
+  </si>
+  <si>
+    <t>TowerBomb1_Die</t>
+  </si>
+  <si>
+    <t>TowerBomb2_Die</t>
+  </si>
+  <si>
+    <t>TowerBomb3_Die</t>
+  </si>
+  <si>
+    <t>炸弹出场1</t>
+  </si>
+  <si>
+    <t>炸弹出场2</t>
+  </si>
+  <si>
+    <t>炸弹出场3</t>
+  </si>
+  <si>
+    <t>TowerBomb1_Show</t>
+  </si>
+  <si>
+    <t>Show</t>
+  </si>
+  <si>
+    <t>TowerBomb2_Show</t>
+  </si>
+  <si>
+    <t>TowerBomb3_Show</t>
   </si>
 </sst>
 </file>
@@ -358,7 +406,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -371,9 +419,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -651,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -662,7 +707,7 @@
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="22.75" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="32.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
     <col min="6" max="8" width="13.75" customWidth="1"/>
   </cols>
@@ -954,7 +999,7 @@
       <c r="G10" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -975,7 +1020,7 @@
       <c r="G11" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -996,7 +1041,7 @@
       <c r="G12" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1017,7 +1062,7 @@
       <c r="G13" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1038,7 +1083,7 @@
       <c r="G14" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1059,8 +1104,197 @@
       <c r="G15" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="8" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" ref="D16:D18" si="1">B16&amp;"_"&amp;C16</f>
+        <v>PlayAnimator_TowerBomb1_Attack</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>PlayAnimator_TowerBomb2_Attack</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>PlayAnimator_TowerBomb3_Attack</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" ref="D19:D21" si="2">B19&amp;"_"&amp;C19</f>
+        <v>PlayAnimator_TowerBomb1_Die</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="2"/>
+        <v>PlayAnimator_TowerBomb2_Die</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="2"/>
+        <v>PlayAnimator_TowerBomb3_Die</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" ref="D22:D24" si="3">B22&amp;"_"&amp;C22</f>
+        <v>PlayAnimator_TowerBomb1_Show</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="3"/>
+        <v>PlayAnimator_TowerBomb2_Show</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="3"/>
+        <v>PlayAnimator_TowerBomb3_Show</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAnimator.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAnimator.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A872E82-3659-426B-ADEE-50B5561FB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94677728-91EB-4B1A-B237-F1D8EA21B77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -167,10 +178,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>是否进自己可见</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>isOnlySelfShow</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -280,6 +287,10 @@
   </si>
   <si>
     <t>TowerBomb3_Show</t>
+  </si>
+  <si>
+    <t>是否仅自己可见</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -699,20 +710,20 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="8" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="8" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -728,7 +739,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>15</v>
@@ -752,7 +763,7 @@
       <c r="Y1"/>
       <c r="Z1"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -782,7 +793,7 @@
       <c r="Y2"/>
       <c r="Z2"/>
     </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -798,7 +809,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>18</v>
@@ -822,7 +833,7 @@
       <c r="Y3"/>
       <c r="Z3"/>
     </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -854,7 +865,7 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -870,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>16</v>
@@ -894,7 +905,7 @@
       <c r="Y5"/>
       <c r="Z5"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
@@ -916,7 +927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -938,7 +949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -960,7 +971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
@@ -982,208 +993,208 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" ref="D10:D15" si="0">B10&amp;"_"&amp;C10</f>
         <v>PlayAnimator_TowerAoShu1_Attack</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>PlayAnimator_TowerAoShu2_Attack</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>PlayAnimator_TowerAoShu3_Attack</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>PlayAnimator_TowerGoblin1_Attack</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>PlayAnimator_TowerGoblin2_Attack</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v>PlayAnimator_TowerGoblin3_Attack</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H15" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" ref="D16:D18" si="1">B16&amp;"_"&amp;C16</f>
         <v>PlayAnimator_TowerBomb1_Attack</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="1"/>
         <v>PlayAnimator_TowerBomb2_Attack</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="1"/>
         <v>PlayAnimator_TowerBomb3_Attack</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" ref="D19:D21" si="2">B19&amp;"_"&amp;C19</f>
         <v>PlayAnimator_TowerBomb1_Die</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" s="6" t="b">
         <v>0</v>
@@ -1192,19 +1203,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="2"/>
         <v>PlayAnimator_TowerBomb2_Die</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" s="6" t="b">
         <v>0</v>
@@ -1213,19 +1224,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="2"/>
         <v>PlayAnimator_TowerBomb3_Die</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" s="6" t="b">
         <v>0</v>
@@ -1234,67 +1245,67 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" ref="D22:D24" si="3">B22&amp;"_"&amp;C22</f>
         <v>PlayAnimator_TowerBomb1_Show</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H22" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="3"/>
         <v>PlayAnimator_TowerBomb2_Show</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G23" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="3"/>
         <v>PlayAnimator_TowerBomb3_Show</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G24" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAnimator.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAnimator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94677728-91EB-4B1A-B237-F1D8EA21B77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B74B8AD-3846-48A3-B516-E19FCED61BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t>##var</t>
   </si>
@@ -290,6 +290,22 @@
   </si>
   <si>
     <t>是否仅自己可见</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HideToIdle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>isLoop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否循环播放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -707,23 +723,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
-    <col min="6" max="8" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="9" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -744,7 +760,9 @@
       <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1"/>
+      <c r="I1" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
@@ -763,7 +781,7 @@
       <c r="Y1"/>
       <c r="Z1"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -774,7 +792,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2"/>
+      <c r="I2" s="3"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -793,7 +811,7 @@
       <c r="Y2"/>
       <c r="Z2"/>
     </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -814,7 +832,9 @@
       <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I3"/>
+      <c r="I3" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -833,7 +853,7 @@
       <c r="Y3"/>
       <c r="Z3"/>
     </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -846,7 +866,7 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4"/>
+      <c r="I4" s="4"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -865,7 +885,7 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -886,7 +906,9 @@
       <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I5"/>
+      <c r="I5" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -905,7 +927,7 @@
       <c r="Y5"/>
       <c r="Z5"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
@@ -926,8 +948,11 @@
       <c r="H6" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I6" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -948,17 +973,20 @@
       <c r="H7" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I7" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
-        <v>2</v>
+      <c r="C8" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="D8" t="str">
         <f>B8&amp;"_"&amp;C8</f>
-        <v>PlayAnimator_2</v>
+        <v>PlayAnimator_Idle</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -970,8 +998,11 @@
       <c r="H8" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I8" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
@@ -992,8 +1023,11 @@
       <c r="H9" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I9" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
@@ -1013,8 +1047,11 @@
       <c r="H10" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I10" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
@@ -1034,8 +1071,11 @@
       <c r="H11" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I11" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1055,8 +1095,11 @@
       <c r="H12" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I12" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -1076,8 +1119,11 @@
       <c r="H13" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I13" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1097,8 +1143,11 @@
       <c r="H14" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I14" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1118,8 +1167,11 @@
       <c r="H15" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I15" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
@@ -1139,8 +1191,11 @@
       <c r="H16" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
@@ -1160,8 +1215,11 @@
       <c r="H17" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
@@ -1181,8 +1239,11 @@
       <c r="H18" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
@@ -1202,8 +1263,11 @@
       <c r="H19" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>13</v>
       </c>
@@ -1223,8 +1287,11 @@
       <c r="H20" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
@@ -1244,8 +1311,11 @@
       <c r="H21" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
         <v>13</v>
       </c>
@@ -1265,8 +1335,11 @@
       <c r="H22" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1286,8 +1359,11 @@
       <c r="H23" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -1306,6 +1382,34 @@
       </c>
       <c r="H24" s="8" t="s">
         <v>55</v>
+      </c>
+      <c r="I24" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="str">
+        <f>B25&amp;"_"&amp;C25</f>
+        <v>PlayAnimator_HideToIdle</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAnimator.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAnimator.xlsx
@@ -8,30 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B74B8AD-3846-48A3-B516-E19FCED61BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7439588-1E3E-4D80-9AF4-2B15498A24C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t>##var</t>
   </si>
@@ -306,6 +295,10 @@
   </si>
   <si>
     <t>Idle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放攻击</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -723,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1031,16 +1024,17 @@
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>32</v>
+      <c r="C10" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" ref="D10:D15" si="0">B10&amp;"_"&amp;C10</f>
-        <v>PlayAnimator_TowerAoShu1_Attack</v>
+        <f>B10&amp;"_"&amp;C10</f>
+        <v>PlayAnimator_Attack1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="6" t="b">
         <v>0</v>
       </c>
@@ -1056,134 +1050,134 @@
         <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ref="D11:D16" si="0">B11&amp;"_"&amp;C11</f>
+        <v>PlayAnimator_TowerAoShu1_Attack</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>PlayAnimator_TowerAoShu2_Attack</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="G12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="I12" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>PlayAnimator_TowerAoShu3_Attack</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="G13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="I13" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>PlayAnimator_TowerGoblin1_Attack</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8" t="s">
+      <c r="G14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="I14" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v>PlayAnimator_TowerGoblin2_Attack</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8" t="s">
+      <c r="G15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="I15" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v>PlayAnimator_TowerGoblin3_Attack</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G15" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" ref="D16:D18" si="1">B16&amp;"_"&amp;C16</f>
-        <v>PlayAnimator_TowerBomb1_Attack</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="G16" s="6" t="b">
         <v>0</v>
@@ -1200,68 +1194,68 @@
         <v>13</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" ref="D17:D19" si="1">B17&amp;"_"&amp;C17</f>
+        <v>PlayAnimator_TowerBomb1_Attack</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D18" t="str">
         <f t="shared" si="1"/>
         <v>PlayAnimator_TowerBomb2_Attack</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8" t="s">
+      <c r="G18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="I18" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D19" t="str">
         <f t="shared" si="1"/>
         <v>PlayAnimator_TowerBomb3_Attack</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8" t="s">
+      <c r="G19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="I18" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" ref="D19:D21" si="2">B19&amp;"_"&amp;C19</f>
-        <v>PlayAnimator_TowerBomb1_Die</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="I19" s="6" t="b">
         <v>0</v>
@@ -1272,68 +1266,68 @@
         <v>13</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" ref="D20:D22" si="2">B20&amp;"_"&amp;C20</f>
+        <v>PlayAnimator_TowerBomb1_Die</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D21" t="str">
         <f t="shared" si="2"/>
         <v>PlayAnimator_TowerBomb2_Die</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8" t="s">
+      <c r="G21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="I21" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D22" t="str">
         <f t="shared" si="2"/>
         <v>PlayAnimator_TowerBomb3_Die</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8" t="s">
+      <c r="G22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="I21" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" ref="D22:D24" si="3">B22&amp;"_"&amp;C22</f>
-        <v>PlayAnimator_TowerBomb1_Show</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="I22" s="6" t="b">
         <v>0</v>
@@ -1344,71 +1338,95 @@
         <v>13</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" ref="D23:D25" si="3">B23&amp;"_"&amp;C23</f>
+        <v>PlayAnimator_TowerBomb1_Show</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D24" t="str">
         <f t="shared" si="3"/>
         <v>PlayAnimator_TowerBomb2_Show</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8" t="s">
+      <c r="G24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="I24" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D25" t="str">
         <f t="shared" si="3"/>
         <v>PlayAnimator_TowerBomb3_Show</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="8" t="s">
+      <c r="G25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="I25" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D25" t="str">
-        <f>B25&amp;"_"&amp;C25</f>
+      <c r="D26" t="str">
+        <f>B26&amp;"_"&amp;C26</f>
         <v>PlayAnimator_HideToIdle</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8" t="s">
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="I25" s="6" t="b">
+      <c r="I26" s="6" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAnimator.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAnimator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7439588-1E3E-4D80-9AF4-2B15498A24C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36532D72-1464-4FB6-9965-DA847221B7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>##var</t>
   </si>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PlayAnimator</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>播放动作1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -195,40 +191,10 @@
     <t>哥布林攻击3</t>
   </si>
   <si>
-    <t>TowerAoShu1_Attack</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerAoShu2_Attack</t>
-  </si>
-  <si>
-    <t>TowerAoShu3_Attack</t>
-  </si>
-  <si>
-    <t>TowerGoblin1_Attack</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerGoblin2_Attack</t>
-  </si>
-  <si>
-    <t>TowerGoblin3_Attack</t>
-  </si>
-  <si>
     <t>Attack1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TowerBomb1_Attack</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerBomb2_Attack</t>
-  </si>
-  <si>
-    <t>TowerBomb3_Attack</t>
-  </si>
-  <si>
     <t>炸弹攻击1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -248,15 +214,6 @@
     <t>炸弹爆炸3</t>
   </si>
   <si>
-    <t>TowerBomb1_Die</t>
-  </si>
-  <si>
-    <t>TowerBomb2_Die</t>
-  </si>
-  <si>
-    <t>TowerBomb3_Die</t>
-  </si>
-  <si>
     <t>炸弹出场1</t>
   </si>
   <si>
@@ -266,18 +223,9 @@
     <t>炸弹出场3</t>
   </si>
   <si>
-    <t>TowerBomb1_Show</t>
-  </si>
-  <si>
     <t>Show</t>
   </si>
   <si>
-    <t>TowerBomb2_Show</t>
-  </si>
-  <si>
-    <t>TowerBomb3_Show</t>
-  </si>
-  <si>
     <t>是否仅自己可见</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -294,11 +242,78 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Idle</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>播放攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayAnimator_None</t>
+  </si>
+  <si>
+    <t>PlayAnimator_1</t>
+  </si>
+  <si>
+    <t>PlayAnimator_Idle</t>
+  </si>
+  <si>
+    <t>PlayAnimator_Die</t>
+  </si>
+  <si>
+    <t>PlayAnimator_Attack1</t>
+  </si>
+  <si>
+    <t>PlayAnimator_TowerAoShu1_Attack</t>
+  </si>
+  <si>
+    <t>PlayAnimator_TowerAoShu2_Attack</t>
+  </si>
+  <si>
+    <t>PlayAnimator_TowerAoShu3_Attack</t>
+  </si>
+  <si>
+    <t>PlayAnimator_TowerGoblin1_Attack</t>
+  </si>
+  <si>
+    <t>PlayAnimator_TowerGoblin2_Attack</t>
+  </si>
+  <si>
+    <t>PlayAnimator_TowerGoblin3_Attack</t>
+  </si>
+  <si>
+    <t>PlayAnimator_TowerBomb1_Attack</t>
+  </si>
+  <si>
+    <t>PlayAnimator_TowerBomb2_Attack</t>
+  </si>
+  <si>
+    <t>PlayAnimator_TowerBomb3_Attack</t>
+  </si>
+  <si>
+    <t>PlayAnimator_TowerBomb1_Die</t>
+  </si>
+  <si>
+    <t>PlayAnimator_TowerBomb2_Die</t>
+  </si>
+  <si>
+    <t>PlayAnimator_TowerBomb3_Die</t>
+  </si>
+  <si>
+    <t>PlayAnimator_TowerBomb1_Show</t>
+  </si>
+  <si>
+    <t>PlayAnimator_TowerBomb2_Show</t>
+  </si>
+  <si>
+    <t>PlayAnimator_TowerBomb3_Show</t>
+  </si>
+  <si>
+    <t>PlayAnimator_HideToIdle</t>
+  </si>
+  <si>
+    <t>播放地底出生</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayAnimator_Show</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +321,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,14 +363,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -426,7 +433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -438,7 +445,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -716,46 +722,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="9" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="7" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H1"/>
+      <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
@@ -771,10 +775,8 @@
       <c r="V1"/>
       <c r="W1"/>
       <c r="X1"/>
-      <c r="Y1"/>
-      <c r="Z1"/>
-    </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -784,8 +786,8 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2"/>
+      <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -801,33 +803,31 @@
       <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-    </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -843,23 +843,21 @@
       <c r="V3"/>
       <c r="W3"/>
       <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-    </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4"/>
+      <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -875,33 +873,31 @@
       <c r="V4"/>
       <c r="W4"/>
       <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-    </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -917,516 +913,387 @@
       <c r="V5"/>
       <c r="W5"/>
       <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="str">
-        <f>B6&amp;"_"&amp;C6</f>
-        <v>PlayAnimator_None</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+      <c r="G9" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="str">
-        <f>B7&amp;"_"&amp;C7</f>
-        <v>PlayAnimator_1</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" t="str">
-        <f>B8&amp;"_"&amp;C8</f>
-        <v>PlayAnimator_Idle</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="str">
-        <f>B9&amp;"_"&amp;C9</f>
-        <v>PlayAnimator_Die</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="str">
-        <f>B10&amp;"_"&amp;C10</f>
-        <v>PlayAnimator_Attack1</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" ref="D11:D16" si="0">B11&amp;"_"&amp;C11</f>
-        <v>PlayAnimator_TowerAoShu1_Attack</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>PlayAnimator_TowerAoShu2_Attack</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>PlayAnimator_TowerAoShu3_Attack</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>PlayAnimator_TowerGoblin1_Attack</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>PlayAnimator_TowerGoblin2_Attack</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>PlayAnimator_TowerGoblin3_Attack</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" ref="D17:D19" si="1">B17&amp;"_"&amp;C17</f>
-        <v>PlayAnimator_TowerBomb1_Attack</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="1"/>
-        <v>PlayAnimator_TowerBomb2_Attack</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="1"/>
-        <v>PlayAnimator_TowerBomb3_Attack</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" ref="D20:D22" si="2">B20&amp;"_"&amp;C20</f>
-        <v>PlayAnimator_TowerBomb1_Die</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="2"/>
-        <v>PlayAnimator_TowerBomb2_Die</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="2"/>
-        <v>PlayAnimator_TowerBomb3_Die</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" ref="D23:D25" si="3">B23&amp;"_"&amp;C23</f>
-        <v>PlayAnimator_TowerBomb1_Show</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="3"/>
-        <v>PlayAnimator_TowerBomb2_Show</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="3"/>
-        <v>PlayAnimator_TowerBomb3_Show</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" t="str">
-        <f>B26&amp;"_"&amp;C26</f>
-        <v>PlayAnimator_HideToIdle</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26" s="6" t="b">
+      <c r="G28" s="6" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAnimator.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_PlayAnimator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36532D72-1464-4FB6-9965-DA847221B7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3463BE2E-1073-4FC0-9726-F39A9FD5271F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -725,7 +725,7 @@
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
